--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roms1512/Desktop/Starting website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roms1512/Desktop/Projet OpenClassrooms/P4_Lavaur_Romain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BEB8D-5EC9-314D-BCDE-833D2AC5BB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD6D29-0BEB-854B-A931-316DA65BC904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Catégorie</t>
   </si>
@@ -46,6 +46,60 @@
   </si>
   <si>
     <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>image de texte</t>
+  </si>
+  <si>
+    <t>ecrire le texte</t>
+  </si>
+  <si>
+    <t>une image prend plus de place que du texte ecrit</t>
+  </si>
+  <si>
+    <t>document JavaScript</t>
+  </si>
+  <si>
+    <t>document inutiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code inutiles </t>
+  </si>
+  <si>
+    <t>code qui ne sert à rien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le code ne s'affiche pas et/ou est inutiles </t>
+  </si>
+  <si>
+    <t>suprimer c'est ligne de code</t>
+  </si>
+  <si>
+    <t>prend de la puissance pour charger Le site</t>
+  </si>
+  <si>
+    <t>document CSS</t>
+  </si>
+  <si>
+    <t>suprimer les documents inutiles</t>
+  </si>
+  <si>
+    <t>suprimer les document inutiles</t>
+  </si>
+  <si>
+    <t>element important non afficher</t>
+  </si>
+  <si>
+    <t>des ligne de code utiles son ecrites mais l'élements ne s'affiche pas</t>
+  </si>
+  <si>
+    <t>certaines ligne de code sont intérésante pour un bon réferencement d'un site mais malheusement il ne s'affiche pas</t>
+  </si>
+  <si>
+    <t>trouver un moyen pour afficher c'est elements</t>
   </si>
 </sst>
 </file>
@@ -205,15 +259,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,12 +500,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
@@ -484,146 +555,186 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="b">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8"/>
+    <row r="3" spans="1:26" ht="35" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:26" ht="45" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
+    <row r="5" spans="1:26" ht="44" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
+    <row r="6" spans="1:26" ht="38" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
+    <row r="7" spans="1:26" ht="50" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="b">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="b">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="b">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="b">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="b">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="b">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="b">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="b">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roms1512/Desktop/Projet OpenClassrooms/P4_Lavaur_Romain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD6D29-0BEB-854B-A931-316DA65BC904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C487D-5242-064D-A453-F4EFAF5B446D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-32680" yWindow="1540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Catégorie</t>
   </si>
@@ -48,9 +48,6 @@
     <t>(SEO ou accessiblité ?)</t>
   </si>
   <si>
-    <t>images</t>
-  </si>
-  <si>
     <t>image de texte</t>
   </si>
   <si>
@@ -60,15 +57,9 @@
     <t>une image prend plus de place que du texte ecrit</t>
   </si>
   <si>
-    <t>document JavaScript</t>
-  </si>
-  <si>
     <t>document inutiles</t>
   </si>
   <si>
-    <t xml:space="preserve">code inutiles </t>
-  </si>
-  <si>
     <t>code qui ne sert à rien</t>
   </si>
   <si>
@@ -81,18 +72,12 @@
     <t>prend de la puissance pour charger Le site</t>
   </si>
   <si>
-    <t>document CSS</t>
-  </si>
-  <si>
     <t>suprimer les documents inutiles</t>
   </si>
   <si>
     <t>suprimer les document inutiles</t>
   </si>
   <si>
-    <t>element important non afficher</t>
-  </si>
-  <si>
     <t>des ligne de code utiles son ecrites mais l'élements ne s'affiche pas</t>
   </si>
   <si>
@@ -100,6 +85,12 @@
   </si>
   <si>
     <t>trouver un moyen pour afficher c'est elements</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
   </si>
 </sst>
 </file>
@@ -500,7 +491,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -568,16 +559,16 @@
     </row>
     <row r="3" spans="1:26" ht="35" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="9" t="b">
         <v>1</v>
@@ -586,16 +577,16 @@
     </row>
     <row r="4" spans="1:26" ht="45" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="b">
         <v>1</v>
@@ -604,16 +595,16 @@
     </row>
     <row r="5" spans="1:26" ht="44" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="9" t="b">
         <v>1</v>
@@ -622,16 +613,16 @@
     </row>
     <row r="6" spans="1:26" ht="38" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="b">
         <v>1</v>
@@ -643,13 +634,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="9" t="b">
         <v>1</v>
